--- a/노트/8_1st Project/프로젝트관리.xlsx
+++ b/노트/8_1st Project/프로젝트관리.xlsx
@@ -1120,7 +1120,7 @@
   </si>
   <si>
     <t>프로젝트명 일정
-(2020.03.10~2019.03.20 주말제외)</t>
+(2020.03.10~2019.03.20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1754,54 +1754,96 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1814,9 +1856,6 @@
     <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1836,45 +1875,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2223,10 +2223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -2235,49 +2235,53 @@
     <col min="2" max="2" width="0.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="26.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="0.75" style="4" customWidth="1"/>
-    <col min="5" max="13" width="2.875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="0.75" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="2.25" style="4"/>
+    <col min="5" max="15" width="2.875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="0.75" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="2.25" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -2291,10 +2295,12 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -2308,36 +2314,40 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="47"/>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65" t="s">
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="62"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="22"/>
       <c r="E7" s="13">
         <v>10</v>
@@ -2351,25 +2361,31 @@
       <c r="H7" s="13">
         <v>13</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="13">
+        <v>14</v>
+      </c>
+      <c r="J7" s="13">
+        <v>15</v>
+      </c>
+      <c r="K7" s="23">
         <v>16</v>
       </c>
-      <c r="J7" s="13">
+      <c r="L7" s="13">
         <v>17</v>
       </c>
-      <c r="K7" s="13">
+      <c r="M7" s="13">
         <v>18</v>
       </c>
-      <c r="L7" s="13">
+      <c r="N7" s="13">
         <v>19</v>
       </c>
-      <c r="M7" s="13">
+      <c r="O7" s="13">
         <v>20</v>
       </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" s="24"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2383,10 +2399,12 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="6"/>
       <c r="C9" s="12" t="s">
@@ -2402,10 +2420,12 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="6"/>
       <c r="C10" s="9"/>
@@ -2419,13 +2439,15 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="59" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="10"/>
@@ -2438,13 +2460,15 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="55"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="6"/>
@@ -2455,10 +2479,12 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="6"/>
       <c r="C13" s="10"/>
@@ -2472,13 +2498,15 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="51" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="10"/>
@@ -2491,13 +2519,15 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="58"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="6"/>
@@ -2508,10 +2538,12 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="6"/>
       <c r="C16" s="10"/>
@@ -2525,13 +2557,15 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="59" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="10"/>
@@ -2544,13 +2578,15 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="55"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="10"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
@@ -2561,10 +2597,12 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
@@ -2578,10 +2616,12 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
       <c r="B20" s="6"/>
       <c r="C20" s="13" t="s">
@@ -2597,13 +2637,15 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="61" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="10"/>
@@ -2611,18 +2653,20 @@
       <c r="F21" s="6"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="56"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="10"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2633,10 +2677,12 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="6"/>
       <c r="C23" s="10"/>
@@ -2650,13 +2696,15 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="61" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="10"/>
@@ -2664,32 +2712,36 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="38"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="56"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="10"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
       <c r="B26" s="6"/>
       <c r="C26" s="10"/>
@@ -2699,17 +2751,19 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="5"/>
+      <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="L26" s="5"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="61" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="10"/>
@@ -2717,32 +2771,36 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="38"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="56"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="10"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="11"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
@@ -2756,13 +2814,15 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="61" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="10"/>
@@ -2770,32 +2830,36 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="38"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="56"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16"/>
       <c r="B32" s="6"/>
       <c r="C32" s="10"/>
@@ -2809,13 +2873,15 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="5"/>
-    </row>
-    <row r="33" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="61" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="10"/>
@@ -2823,18 +2889,20 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="5"/>
+      <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="K33" s="5"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="56"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="10"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2845,10 +2913,12 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="5"/>
-    </row>
-    <row r="35" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16"/>
       <c r="B35" s="6"/>
       <c r="C35" s="10"/>
@@ -2862,13 +2932,15 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="5"/>
-    </row>
-    <row r="36" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="5"/>
+    </row>
+    <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="61" t="s">
         <v>262</v>
       </c>
       <c r="D36" s="10"/>
@@ -2876,32 +2948,36 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="38"/>
+      <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="K36" s="38"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="5"/>
-    </row>
-    <row r="37" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="5"/>
+    </row>
+    <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="56"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="10"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
       <c r="M37" s="6"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="5"/>
+    </row>
+    <row r="38" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16"/>
       <c r="B38" s="6"/>
       <c r="C38" s="10"/>
@@ -2915,10 +2991,12 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="5"/>
-    </row>
-    <row r="39" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="5"/>
+    </row>
+    <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16"/>
       <c r="B39" s="6"/>
       <c r="C39" s="13" t="s">
@@ -2934,13 +3012,15 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="5"/>
-    </row>
-    <row r="40" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="5"/>
+    </row>
+    <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="62" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="10"/>
@@ -2948,18 +3028,20 @@
       <c r="F40" s="6"/>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="25"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="5"/>
-    </row>
-    <row r="41" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="57"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="10"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -2970,10 +3052,12 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="5"/>
-    </row>
-    <row r="42" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="5"/>
+    </row>
+    <row r="42" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
       <c r="B42" s="6"/>
       <c r="C42" s="10"/>
@@ -2987,13 +3071,15 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="5"/>
-    </row>
-    <row r="43" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="5"/>
+    </row>
+    <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="62" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="10"/>
@@ -3002,31 +3088,35 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="5"/>
-    </row>
-    <row r="44" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="5"/>
+    </row>
+    <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="57"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="10"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="5"/>
-    </row>
-    <row r="45" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="5"/>
+    </row>
+    <row r="45" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16"/>
       <c r="B45" s="6"/>
       <c r="C45" s="10"/>
@@ -3040,13 +3130,15 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="5"/>
-    </row>
-    <row r="46" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="5"/>
+    </row>
+    <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="62" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="10"/>
@@ -3055,17 +3147,19 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="5"/>
-    </row>
-    <row r="47" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="5"/>
+    </row>
+    <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="57"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="10"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -3073,13 +3167,15 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="5"/>
-    </row>
-    <row r="48" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="5"/>
+    </row>
+    <row r="48" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="16"/>
       <c r="B48" s="6"/>
       <c r="C48" s="10"/>
@@ -3093,13 +3189,15 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="5"/>
-    </row>
-    <row r="49" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="5"/>
+    </row>
+    <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="62" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="10"/>
@@ -3108,17 +3206,19 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="5"/>
-    </row>
-    <row r="50" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="5"/>
+    </row>
+    <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="57"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -3126,13 +3226,15 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="K50" s="8"/>
+      <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="5"/>
-    </row>
-    <row r="51" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M50" s="8"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="5"/>
+    </row>
+    <row r="51" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="16"/>
       <c r="B51" s="6"/>
       <c r="C51" s="10"/>
@@ -3146,10 +3248,12 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="5"/>
-    </row>
-    <row r="52" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="5"/>
+    </row>
+    <row r="52" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
       <c r="B52" s="6"/>
       <c r="C52" s="13" t="s">
@@ -3165,13 +3269,15 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="5"/>
+    </row>
+    <row r="53" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="52" t="s">
+      <c r="C53" s="60" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="10"/>
@@ -3180,31 +3286,35 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="54" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="5"/>
+    </row>
+    <row r="54" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="52"/>
+      <c r="C54" s="60"/>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
-      <c r="J54" s="8"/>
+      <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
+      <c r="L54" s="8"/>
       <c r="M54" s="6"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="5"/>
-    </row>
-    <row r="55" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="5"/>
+    </row>
+    <row r="55" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="16"/>
       <c r="B55" s="6"/>
       <c r="C55" s="10"/>
@@ -3218,13 +3328,15 @@
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="5"/>
-    </row>
-    <row r="56" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="5"/>
+    </row>
+    <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="52" t="s">
+      <c r="C56" s="60" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="10"/>
@@ -3233,31 +3345,35 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="5"/>
-    </row>
-    <row r="57" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="5"/>
+    </row>
+    <row r="57" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="52"/>
+      <c r="C57" s="60"/>
       <c r="D57" s="10"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
-      <c r="J57" s="8"/>
+      <c r="J57" s="6"/>
       <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
+      <c r="L57" s="8"/>
       <c r="M57" s="6"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="5"/>
-    </row>
-    <row r="58" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="5"/>
+    </row>
+    <row r="58" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16"/>
       <c r="B58" s="6"/>
       <c r="C58" s="10"/>
@@ -3271,13 +3387,15 @@
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="5"/>
-    </row>
-    <row r="59" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="5"/>
+    </row>
+    <row r="59" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="52" t="s">
+      <c r="C59" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="10"/>
@@ -3286,17 +3404,19 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="5"/>
-    </row>
-    <row r="60" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="5"/>
+    </row>
+    <row r="60" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="52"/>
+      <c r="C60" s="60"/>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -3304,13 +3424,15 @@
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="5"/>
-    </row>
-    <row r="61" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="5"/>
+    </row>
+    <row r="61" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="16"/>
       <c r="B61" s="6"/>
       <c r="C61" s="10"/>
@@ -3324,13 +3446,15 @@
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="5"/>
-    </row>
-    <row r="62" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="5"/>
+    </row>
+    <row r="62" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="52" t="s">
+      <c r="C62" s="60" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="10"/>
@@ -3338,32 +3462,36 @@
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="38"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="5"/>
-    </row>
-    <row r="63" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="5"/>
+    </row>
+    <row r="63" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="52"/>
+      <c r="C63" s="60"/>
       <c r="D63" s="10"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="5"/>
-    </row>
-    <row r="64" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="5"/>
+    </row>
+    <row r="64" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16"/>
       <c r="B64" s="6"/>
       <c r="C64" s="10"/>
@@ -3377,13 +3505,15 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="5"/>
-    </row>
-    <row r="65" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="5"/>
+    </row>
+    <row r="65" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="52" t="s">
+      <c r="C65" s="60" t="s">
         <v>36</v>
       </c>
       <c r="D65" s="10"/>
@@ -3391,32 +3521,36 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="38"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="5"/>
-    </row>
-    <row r="66" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="5"/>
+    </row>
+    <row r="66" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="52"/>
+      <c r="C66" s="60"/>
       <c r="D66" s="10"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="8"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="5"/>
-    </row>
-    <row r="67" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="5"/>
+    </row>
+    <row r="67" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="16"/>
       <c r="B67" s="6"/>
       <c r="C67" s="10"/>
@@ -3430,13 +3564,15 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="5"/>
-    </row>
-    <row r="68" spans="1:15" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="5"/>
+    </row>
+    <row r="68" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="16"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="64" t="s">
         <v>253</v>
       </c>
       <c r="D68" s="7"/>
@@ -3448,14 +3584,16 @@
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="5"/>
-    </row>
-    <row r="69" spans="1:15" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="5"/>
+    </row>
+    <row r="69" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="53"/>
+      <c r="C69" s="64"/>
       <c r="D69" s="7"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -3465,11 +3603,13 @@
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="5"/>
-    </row>
-    <row r="70" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="5"/>
+    </row>
+    <row r="70" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="16"/>
       <c r="B70" s="17"/>
       <c r="C70" s="15"/>
@@ -3483,10 +3623,12 @@
       <c r="K70" s="15"/>
       <c r="L70" s="15"/>
       <c r="M70" s="15"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="5"/>
-    </row>
-    <row r="71" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="5"/>
+    </row>
+    <row r="71" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3502,27 +3644,31 @@
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
-    </row>
-    <row r="72" spans="1:15" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+    </row>
+    <row r="72" spans="1:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
-      <c r="J72" s="51" t="s">
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="K72" s="51"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
+      <c r="M72" s="63"/>
+      <c r="N72" s="49"/>
       <c r="O72" s="5"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -3537,15 +3683,18 @@
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:M3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="F72:G72"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
@@ -3558,13 +3707,12 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3847,16 +3995,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="89" t="s">
         <v>74</v>
       </c>
       <c r="F3" s="43" t="s">
@@ -3869,10 +4017,10 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="43" t="s">
         <v>70</v>
       </c>
@@ -3887,12 +4035,12 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="76" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="89" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="43" t="s">
@@ -3905,10 +4053,10 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
       <c r="F6" s="43" t="s">
         <v>75</v>
       </c>
@@ -3923,12 +4071,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="76" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="81" t="s">
         <v>133</v>
       </c>
       <c r="F7" s="43" t="s">
@@ -3941,10 +4089,10 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="77"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="90"/>
       <c r="F8" s="43" t="s">
         <v>82</v>
       </c>
@@ -3959,10 +4107,10 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="91"/>
       <c r="F9" s="43" t="s">
         <v>81</v>
       </c>
@@ -3973,16 +4121,16 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="71" t="s">
         <v>251</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="70" t="s">
         <v>92</v>
       </c>
       <c r="F10" s="44" t="s">
@@ -3995,10 +4143,10 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="74"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
       <c r="F11" s="44" t="s">
         <v>102</v>
       </c>
@@ -4011,8 +4159,8 @@
       <c r="I11" s="44"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="74"/>
-      <c r="C12" s="83"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="44" t="s">
         <v>97</v>
       </c>
@@ -4033,12 +4181,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="74"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="85" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="74" t="s">
         <v>95</v>
       </c>
       <c r="F13" s="44" t="s">
@@ -4055,10 +4203,10 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="74"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="44" t="s">
         <v>114</v>
       </c>
@@ -4073,8 +4221,8 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="74"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="44" t="s">
         <v>93</v>
       </c>
@@ -4093,14 +4241,14 @@
       <c r="I15" s="44"/>
     </row>
     <row r="16" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="74"/>
-      <c r="C16" s="86" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="70" t="s">
         <v>123</v>
       </c>
       <c r="F16" s="44" t="s">
@@ -4113,10 +4261,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="74"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
       <c r="F17" s="44" t="s">
         <v>120</v>
       </c>
@@ -4129,8 +4277,8 @@
       <c r="I17" s="44"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="74"/>
-      <c r="C18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="44" t="s">
         <v>124</v>
       </c>
@@ -4149,8 +4297,8 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="74"/>
-      <c r="C19" s="86"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="44" t="s">
         <v>125</v>
       </c>
@@ -4171,12 +4319,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="74"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="81" t="s">
+      <c r="B20" s="87"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="70" t="s">
         <v>135</v>
       </c>
       <c r="F20" s="44" t="s">
@@ -4193,10 +4341,10 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="74"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
       <c r="F21" s="44" t="s">
         <v>146</v>
       </c>
@@ -4209,8 +4357,8 @@
       <c r="I21" s="44"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="75"/>
-      <c r="C22" s="86"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="44" t="s">
         <v>127</v>
       </c>
@@ -4229,10 +4377,10 @@
       <c r="I22" s="44"/>
     </row>
     <row r="23" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="67" t="s">
         <v>168</v>
       </c>
       <c r="D23" s="42" t="s">
@@ -4253,8 +4401,8 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="80"/>
-      <c r="C24" s="79"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="42" t="s">
         <v>165</v>
       </c>
@@ -4275,8 +4423,8 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="80"/>
-      <c r="C25" s="79"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="42" t="s">
         <v>166</v>
       </c>
@@ -4295,8 +4443,8 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="80"/>
-      <c r="C26" s="79"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="42" t="s">
         <v>167</v>
       </c>
@@ -4317,8 +4465,8 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="80"/>
-      <c r="C27" s="89" t="s">
+      <c r="B27" s="68"/>
+      <c r="C27" s="78" t="s">
         <v>176</v>
       </c>
       <c r="D27" s="42" t="s">
@@ -4339,8 +4487,8 @@
       <c r="I27" s="42"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="80"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="42" t="s">
         <v>172</v>
       </c>
@@ -4359,8 +4507,8 @@
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="80"/>
-      <c r="C29" s="90"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="42" t="s">
         <v>173</v>
       </c>
@@ -4379,8 +4527,8 @@
       <c r="I29" s="42"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="80"/>
-      <c r="C30" s="90"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="42" t="s">
         <v>174</v>
       </c>
@@ -4399,9 +4547,9 @@
       <c r="I30" s="42"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="80"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="87" t="s">
+      <c r="B31" s="68"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="76" t="s">
         <v>175</v>
       </c>
       <c r="E31" s="42" t="s">
@@ -4417,9 +4565,9 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="80"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="88"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="77"/>
       <c r="E32" s="42" t="s">
         <v>204</v>
       </c>
@@ -4437,16 +4585,16 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="70" t="s">
+      <c r="D33" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="84" t="s">
         <v>211</v>
       </c>
       <c r="F33" s="45" t="s">
@@ -4459,10 +4607,10 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
       <c r="F34" s="45" t="s">
         <v>223</v>
       </c>
@@ -4475,8 +4623,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="45" t="s">
         <v>208</v>
       </c>
@@ -4495,8 +4643,8 @@
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
       <c r="D36" s="45" t="s">
         <v>209</v>
       </c>
@@ -4517,12 +4665,12 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
       <c r="D37" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="E37" s="72" t="s">
+      <c r="E37" s="85" t="s">
         <v>218</v>
       </c>
       <c r="F37" s="45" t="s">
@@ -4535,10 +4683,10 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
       <c r="D38" s="45"/>
-      <c r="E38" s="73"/>
+      <c r="E38" s="86"/>
       <c r="F38" s="45" t="s">
         <v>237</v>
       </c>
@@ -4551,8 +4699,8 @@
       <c r="I38" s="45"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
       <c r="D39" s="45" t="s">
         <v>214</v>
       </c>
@@ -4571,12 +4719,12 @@
       <c r="I39" s="45"/>
     </row>
     <row r="40" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="72" t="s">
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="E40" s="72" t="s">
+      <c r="E40" s="85" t="s">
         <v>216</v>
       </c>
       <c r="F40" s="45" t="s">
@@ -4593,10 +4741,10 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
       <c r="F41" s="45" t="s">
         <v>247</v>
       </c>
@@ -4609,8 +4757,8 @@
       <c r="I41" s="45"/>
     </row>
     <row r="42" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="70"/>
-      <c r="C42" s="71" t="s">
+      <c r="B42" s="84"/>
+      <c r="C42" s="69" t="s">
         <v>177</v>
       </c>
       <c r="D42" s="45" t="s">
@@ -4633,8 +4781,8 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="70"/>
-      <c r="C43" s="71"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="69"/>
       <c r="D43" s="45" t="s">
         <v>96</v>
       </c>
@@ -4653,8 +4801,8 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="70"/>
-      <c r="C44" s="71"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="45" t="s">
         <v>179</v>
       </c>
@@ -4676,21 +4824,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B23:B32"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C27:C32"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="D33:D34"/>
@@ -4707,6 +4840,21 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C27:C32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
